--- a/src/ztest_group_merge_xtt%2exlsx.w3mi.data.xlsx
+++ b/src/ztest_group_merge_xtt%2exlsx.w3mi.data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>{R-T-DETAIL_ID}</t>
   </si>
@@ -22,30 +22,15 @@
     <t>{R-T-DETAIL_NAME}</t>
   </si>
   <si>
-    <t>{R-T-VALUE;func=sum}</t>
-  </si>
-  <si>
     <t>{R-T-VALUE}</t>
   </si>
   <si>
-    <t>{R-T-LEV1_ID;merge=X}</t>
-  </si>
-  <si>
-    <t>{R-T-LEV1_ID;func=FIRST;merge=X}</t>
-  </si>
-  <si>
     <t>LVL</t>
   </si>
   <si>
     <t>LEV1_ID</t>
   </si>
   <si>
-    <t>{R-T-LEV1_NAME;func=FIRST;merge=X}</t>
-  </si>
-  <si>
-    <t>{R-T-LEV1_NAME;merge=X}</t>
-  </si>
-  <si>
     <t>LEV1_NAME</t>
   </si>
   <si>
@@ -64,40 +49,22 @@
     <t>LEV2_NAME</t>
   </si>
   <si>
-    <t>{R-T-LEV2_NAME;func=FIRST;merge=X}</t>
-  </si>
-  <si>
-    <t>{R-T-LEV2_NAME;merge=X}</t>
-  </si>
-  <si>
     <t>VALUE</t>
   </si>
   <si>
-    <t>{R-T-LEV2_ID;func=FIRST;merge=X}</t>
-  </si>
-  <si>
-    <t>{R-T-LEV2_ID;merge=X}</t>
-  </si>
-  <si>
-    <t>{R-T;level=3;show_if=ROW-HIDE = ' '}</t>
-  </si>
-  <si>
-    <t>{R-T;group=LEV2_ID,LEV1_ID}</t>
-  </si>
-  <si>
-    <t>{R-T;level=1;top=X;show_if=ROW-HIDE = ' '}</t>
-  </si>
-  <si>
-    <t>{R-T;level=2;top=X;show_if=ROW-HIDE = ' '}</t>
-  </si>
-  <si>
-    <t>Total in {R-T-LEV1_NAME}:</t>
-  </si>
-  <si>
-    <t>Total in {R-T-LEV2_NAME}:</t>
-  </si>
-  <si>
-    <t>{R-T;level=0;top=X}</t>
+    <t>{R-T-LEV1_ID;merge=G0}</t>
+  </si>
+  <si>
+    <t>{R-T-LEV1_NAME;merge=G0}</t>
+  </si>
+  <si>
+    <t>{R-T-LEV2_ID;merge=G1}</t>
+  </si>
+  <si>
+    <t>{R-T-LEV2_NAME;merge=G1}</t>
+  </si>
+  <si>
+    <t>{R-T;group=}</t>
   </si>
 </sst>
 </file>
@@ -127,7 +94,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,18 +104,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -235,38 +190,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -576,7 +510,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,138 +529,82 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" s="9">
         <v>0</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="20" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="13" t="s">
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>3</v>
-      </c>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="1"/>
@@ -738,18 +616,10 @@
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
+      <c r="C10" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
+  <mergeCells count="1">
     <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
